--- a/1~3번문제(sql)/카카오뱅크과제 정리.xlsx
+++ b/1~3번문제(sql)/카카오뱅크과제 정리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sic\IdeaProjects\kakaobank_test\1~3번문제(sql)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE6EE3AD-5628-429A-9654-6727C673678C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D19CF-E7ED-4EA8-9928-4F06CD09E1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="1965" windowWidth="19845" windowHeight="12180" xr2:uid="{15F82959-2C7C-435D-9AC1-A29EBCCE4C2E}"/>
   </bookViews>
@@ -2331,7 +2331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2397,6 +2397,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2715,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76F3F25-B1E8-4A3F-9B34-62A5EA4394B6}">
   <dimension ref="E11:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2923,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBF2E26-C19B-4C0E-BAF7-4313D0D168B5}">
   <dimension ref="A1:AE135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5520,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36569B0-7EED-48DD-B076-B46EE95A398E}">
   <dimension ref="A1:AB182"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7808,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04028E66-44BA-461A-B8DE-912B0082D533}">
   <dimension ref="B1:AP374"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7904,788 +7907,865 @@
       </c>
     </row>
     <row r="6" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AB6" s="22"/>
+      <c r="AE6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AF6" s="15" t="s">
+      <c r="AF6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AH6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AI6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AJ6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="AK6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AL6" s="15" t="s">
+      <c r="AL6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AM6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AN6" s="15" t="s">
+      <c r="AN6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AO6" s="15" t="s">
+      <c r="AO6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AP6" s="15" t="s">
+      <c r="AP6" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B7" s="15">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="15">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22">
         <v>40</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="22">
         <v>100</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="22">
         <v>1</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22">
         <v>99973</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="22">
         <v>100</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AB7" s="22"/>
+      <c r="AE7" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AF7" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="AG7" s="15" t="s">
+      <c r="AG7" s="22" t="s">
         <v>609</v>
       </c>
-      <c r="AH7" s="15" t="s">
+      <c r="AH7" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI7" s="15" t="s">
+      <c r="AI7" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="AJ7" s="15" t="s">
+      <c r="AJ7" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AK7" s="15" t="s">
+      <c r="AK7" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AL7" s="15" t="s">
+      <c r="AL7" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AM7" s="15" t="s">
+      <c r="AM7" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AN7" s="15" t="s">
+      <c r="AN7" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="AO7" s="15" t="s">
+      <c r="AO7" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="AP7" s="15" t="s">
+      <c r="AP7" s="22" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+      <c r="B8" s="22">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="22">
         <v>51</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="22">
         <v>3</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="22">
         <v>100</v>
       </c>
-      <c r="P8" s="15">
+      <c r="M8" s="22"/>
+      <c r="P8" s="22">
         <v>1</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="22">
         <v>51</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="X8" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="22">
         <v>10</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="22">
         <v>100</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AE8" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AF8" s="15" t="s">
+      <c r="AF8" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AG8" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AH8" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AI8" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AJ8" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="AK8" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="AL8" s="15" t="s">
+      <c r="AL8" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AM8" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="AN8" s="15" t="s">
+      <c r="AN8" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="AO8" s="15" t="s">
+      <c r="AO8" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="AP8" s="15" t="s">
+      <c r="AP8" s="22" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B9" s="15">
+      <c r="B9" s="22">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="22">
         <v>51</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="22">
         <v>10</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="22">
         <v>100</v>
       </c>
-      <c r="P9" s="15">
+      <c r="M9" s="22"/>
+      <c r="P9" s="22">
         <v>1</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="22">
         <v>51</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="22">
         <v>10</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="22">
         <v>100</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AE9" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AF9" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="AG9" s="15" t="s">
+      <c r="AG9" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AH9" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI9" s="15" t="s">
+      <c r="AI9" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="AJ9" s="15" t="s">
+      <c r="AJ9" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="AK9" s="15" t="s">
+      <c r="AK9" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="AL9" s="15" t="s">
+      <c r="AL9" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="AM9" s="15" t="s">
+      <c r="AM9" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="AN9" s="15" t="s">
+      <c r="AN9" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="AO9" s="15" t="s">
+      <c r="AO9" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="AP9" s="15" t="s">
+      <c r="AP9" s="22" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="10" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B10" s="15">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="15">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22">
         <v>519</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="22">
         <v>100</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="22">
         <v>5</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="S10" s="22"/>
+      <c r="T10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22">
         <v>80652</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="22">
         <v>100</v>
       </c>
-      <c r="AA10" s="15" t="s">
+      <c r="AA10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AB10" s="22"/>
+      <c r="AE10" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="AF10" s="15" t="s">
+      <c r="AF10" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="AG10" s="15" t="s">
+      <c r="AG10" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="AH10" s="15" t="s">
+      <c r="AH10" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI10" s="15" t="s">
+      <c r="AI10" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="AJ10" s="15" t="s">
+      <c r="AJ10" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AK10" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AL10" s="15" t="s">
+      <c r="AL10" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AM10" s="15" t="s">
+      <c r="AM10" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AN10" s="15" t="s">
+      <c r="AN10" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="AO10" s="15" t="s">
+      <c r="AO10" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="AP10" s="15" t="s">
+      <c r="AP10" s="22" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B11" s="15">
+      <c r="B11" s="22">
         <v>6</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="15">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22">
         <v>519</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="22">
         <v>100</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="22">
         <v>6</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="S11" s="22"/>
+      <c r="T11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22">
         <v>80652</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="22">
         <v>100</v>
       </c>
-      <c r="AA11" s="15" t="s">
+      <c r="AA11" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="AE11" s="15" t="s">
+      <c r="AB11" s="22"/>
+      <c r="AE11" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AF11" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="AG11" s="15" t="s">
+      <c r="AG11" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="AH11" s="15" t="s">
+      <c r="AH11" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI11" s="15" t="s">
+      <c r="AI11" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="AJ11" s="15" t="s">
+      <c r="AJ11" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="AK11" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AL11" s="15" t="s">
+      <c r="AL11" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AM11" s="15" t="s">
+      <c r="AM11" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AN11" s="15" t="s">
+      <c r="AN11" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="AO11" s="15" t="s">
+      <c r="AO11" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="AP11" s="15" t="s">
+      <c r="AP11" s="22" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B12" s="15">
+      <c r="B12" s="22">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="15">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22">
         <v>649</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="22">
         <v>80</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="22">
         <v>7</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="S12" s="22"/>
+      <c r="T12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22">
         <v>100815</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="22">
         <v>80</v>
       </c>
-      <c r="AA12" s="15" t="s">
+      <c r="AA12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AE12" s="15" t="s">
+      <c r="AB12" s="22"/>
+      <c r="AE12" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="AF12" s="15" t="s">
+      <c r="AF12" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="AG12" s="15" t="s">
+      <c r="AG12" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="AH12" s="15" t="s">
+      <c r="AH12" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI12" s="15" t="s">
+      <c r="AI12" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="AJ12" s="15" t="s">
+      <c r="AJ12" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="AK12" s="15" t="s">
+      <c r="AK12" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="AL12" s="15" t="s">
+      <c r="AL12" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="AM12" s="15" t="s">
+      <c r="AM12" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AN12" s="15" t="s">
+      <c r="AN12" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="AO12" s="15" t="s">
+      <c r="AO12" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="AP12" s="15" t="s">
+      <c r="AP12" s="22" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B13" s="15">
+      <c r="B13" s="22">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="15">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22">
         <v>40</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="22">
         <v>81</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="22">
         <v>3</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="S13" s="22"/>
+      <c r="T13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22">
         <v>99973</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="22">
         <v>81</v>
       </c>
-      <c r="AA13" s="15" t="s">
+      <c r="AA13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AE13" s="15" t="s">
+      <c r="AB13" s="22"/>
+      <c r="AE13" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="AG13" s="15" t="s">
+      <c r="AG13" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="AH13" s="15" t="s">
+      <c r="AH13" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI13" s="15" t="s">
+      <c r="AI13" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="AJ13" s="15" t="s">
+      <c r="AJ13" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="AK13" s="15" t="s">
+      <c r="AK13" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="AL13" s="15" t="s">
+      <c r="AL13" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="AM13" s="15" t="s">
+      <c r="AM13" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AN13" s="15" t="s">
+      <c r="AN13" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="AO13" s="15" t="s">
+      <c r="AO13" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="AP13" s="15" t="s">
+      <c r="AP13" s="22" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+      <c r="B14" s="22">
         <v>2</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="15">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22">
         <v>40</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="22">
         <v>100</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="22">
         <v>2</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="S14" s="22"/>
+      <c r="T14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22">
         <v>99973</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="22">
         <v>100</v>
       </c>
-      <c r="AA14" s="15" t="s">
+      <c r="AA14" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="AE14" s="15" t="s">
+      <c r="AB14" s="22"/>
+      <c r="AE14" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="AF14" s="15" t="s">
+      <c r="AF14" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="AG14" s="15" t="s">
+      <c r="AG14" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="AH14" s="15" t="s">
+      <c r="AH14" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AI14" s="15" t="s">
+      <c r="AI14" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="AJ14" s="15" t="s">
+      <c r="AJ14" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AK14" s="15" t="s">
+      <c r="AK14" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AL14" s="15" t="s">
+      <c r="AL14" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AM14" s="15" t="s">
+      <c r="AM14" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="AN14" s="15" t="s">
+      <c r="AN14" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="AO14" s="15" t="s">
+      <c r="AO14" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="AP14" s="15" t="s">
+      <c r="AP14" s="22" t="s">
         <v>630</v>
       </c>
     </row>
